--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344350.0414516953</v>
+        <v>319653.9938601676</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556148</v>
+        <v>2995243.613506388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839641</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4928186.377326025</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="G9" t="n">
-        <v>23.55470292302859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T11" t="n">
-        <v>27.59002526031614</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="U11" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T12" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U12" t="n">
-        <v>24.30129424928645</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1792675346265591</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>27.59002526031614</v>
+        <v>10.61706312961831</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S14" t="n">
-        <v>24.30129424928645</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>19.72731862540289</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>34.11888750173132</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2041,28 +2041,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U19" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>103.7179373760474</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,56 +2324,56 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>19.7279353865638</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>32.91133865957915</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>66.3669444780802</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,61 +2567,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.8009741436498</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>62.43486741948623</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>179.0710807994591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>69.40495261654547</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>91.00671443664312</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>141.2407290992601</v>
+        <v>28.23137413024622</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>47.02492433367367</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,31 +3545,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>51.14195142746666</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>32.23980315910215</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.01695088878485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>201.7212010647393</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>177.9933921796109</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>69.16164888709615</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>180.9727768421111</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,55 +3898,55 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>26.7539638887914</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>86.56747182608416</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83004705776872</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>108.3077753610589</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>80.43906297690118</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.57035059274347</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>24.70163820858575</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>86.56747182608416</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>30.83004705776872</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.3077753610589</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>80.43906297690118</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>97.8833284203818</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>70.01461603622408</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14590365206637</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M8" t="n">
-        <v>55.73185102583861</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S8" t="n">
-        <v>110.3601010412646</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T8" t="n">
-        <v>110.3601010412646</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.3601010412646</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F9" t="n">
-        <v>82.49138865710684</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="G9" t="n">
-        <v>58.69875944192644</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I9" t="n">
-        <v>2.961334673611005</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>28.41772601812563</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="G10" t="n">
-        <v>108.3077753610589</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="H10" t="n">
-        <v>80.43906297690118</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="I10" t="n">
-        <v>52.57035059274347</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>73.85315272828358</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="C11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="D11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="E11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="F11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="G11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="H11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I11" t="n">
-        <v>2.207202020825291</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>2.207202020825291</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>29.52132702853827</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N11" t="n">
-        <v>83.04597603355158</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O11" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R11" t="n">
-        <v>72.39977328887976</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S11" t="n">
-        <v>44.53106090472204</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T11" t="n">
-        <v>16.66234852056432</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="U11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="V11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="W11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="X11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.207202020825291</v>
+        <v>39.99869455743244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>29.52132702853827</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M12" t="n">
-        <v>29.52132702853827</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>55.73185102583861</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G13" t="n">
-        <v>80.43906297690118</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="H13" t="n">
-        <v>80.43906297690118</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="I13" t="n">
-        <v>52.57035059274347</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="J13" t="n">
-        <v>24.70163820858575</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.62014129470579</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F14" t="n">
-        <v>57.94462678914073</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G14" t="n">
-        <v>30.07591440498301</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H14" t="n">
-        <v>30.07591440498301</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>56.83545203625125</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>83.04597603355158</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S14" t="n">
-        <v>85.81333917329844</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y14" t="n">
-        <v>85.81333917329844</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>57.94462678914073</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>30.07591440498301</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M15" t="n">
-        <v>56.83545203625125</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N15" t="n">
-        <v>84.14957704396423</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O15" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>82.49138865710684</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>82.49138865710684</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T15" t="n">
-        <v>82.49138865710684</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="U15" t="n">
-        <v>82.49138865710684</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>82.49138865710684</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="R16" t="n">
-        <v>50.00249887508694</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="S16" t="n">
-        <v>22.13378649092923</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="T16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>15.2366994040306</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>108.260178376266</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2764642733967</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T17" t="n">
-        <v>28.29275017052741</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>28.29275017052741</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L18" t="n">
-        <v>42.35474834916943</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N18" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S18" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T18" t="n">
-        <v>43.90455691260225</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y18" t="n">
-        <v>43.90455691260225</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>130.4472581485427</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.4472581485427</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>90.46354404567346</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>50.47982994280417</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T19" t="n">
-        <v>10.49611583993489</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U19" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V19" t="n">
-        <v>3.166710156947247</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>274.0360370837871</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>30.58726043968704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X20" t="n">
-        <v>30.58726043968704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>900.5405560409666</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5835,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>584.704688205052</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>584.704688205052</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>584.704688205052</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="22">
@@ -5929,31 +5929,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>495.259035872464</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.0815197256143</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C24" t="n">
-        <v>588.0815197256143</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D24" t="n">
-        <v>588.0815197256143</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E24" t="n">
-        <v>428.8440647201588</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>282.3095067470438</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>143.5786813296593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8503084088954</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8503084088954</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8503084088954</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>560.6982001771528</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E29" t="n">
-        <v>517.4848137278872</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F29" t="n">
-        <v>274.0360370837871</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G29" t="n">
-        <v>30.58726043968704</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H29" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,22 +6567,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>290.1981659616912</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>82.34666575615842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>241.9034177187013</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>640.352991943436</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="U32" t="n">
-        <v>348.0024326625565</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="V32" t="n">
-        <v>348.0024326625565</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="W32" t="n">
-        <v>348.0024326625565</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="X32" t="n">
-        <v>348.0024326625565</v>
+        <v>422.7832973141145</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.0024326625565</v>
+        <v>422.7832973141145</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>415.8660387975625</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>269.3314808244475</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>130.6006554070629</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>252.4523977063661</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>872.1311813322088</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>698.7138367828777</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T33" t="n">
-        <v>698.7138367828777</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U33" t="n">
-        <v>470.4902185192667</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.9720515415478</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>426.43660147347</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.2968567456824</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="C36" t="n">
-        <v>581.8438274645554</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="D36" t="n">
-        <v>439.1764243339896</v>
+        <v>413.3031619360563</v>
       </c>
       <c r="E36" t="n">
-        <v>279.9389693285341</v>
+        <v>254.0657069306008</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>107.5311489574858</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>659.389396090879</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>441.8197014615575</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>64.73144338400959</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>64.73144338400959</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>229.833428471618</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.1930433168102</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>499.0616598963603</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>281.4919652670388</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>229.833428471618</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>229.833428471618</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>229.833428471618</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>229.833428471618</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>229.833428471618</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.668582052591</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.79697755110908</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>224.2500068322361</v>
       </c>
       <c r="Y39" t="n">
-        <v>510.883919072659</v>
+        <v>224.2500068322361</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>916.0817487045384</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="C41" t="n">
-        <v>916.0817487045384</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="D41" t="n">
-        <v>684.7479737791499</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="E41" t="n">
-        <v>453.4141988537614</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="F41" t="n">
-        <v>222.0804239283729</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4124924696717</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M41" t="n">
-        <v>518.3881197325759</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N41" t="n">
-        <v>724.2426419398153</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>916.0817487045384</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>916.0817487045384</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="X41" t="n">
-        <v>916.0817487045384</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="Y41" t="n">
-        <v>916.0817487045384</v>
+        <v>412.4453105812599</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>352.0121192606733</v>
+        <v>262.1413544244074</v>
       </c>
       <c r="C42" t="n">
-        <v>177.5590899795463</v>
+        <v>87.68832514328037</v>
       </c>
       <c r="D42" t="n">
-        <v>177.5590899795463</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="E42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>18.32163497409077</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>18.32163497409077</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>210.5832469691118</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N42" t="n">
-        <v>437.313479773485</v>
+        <v>390.368997361522</v>
       </c>
       <c r="O42" t="n">
-        <v>664.0437125778583</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>742.6644041552073</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>742.6644041552073</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>559.8636194662062</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>559.8636194662062</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W42" t="n">
-        <v>559.8636194662062</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="X42" t="n">
-        <v>352.0121192606733</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="Y42" t="n">
-        <v>352.0121192606733</v>
+        <v>430.3566914444754</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8539254643615</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.8539254643615</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26.7539638887914</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>26.7539638887914</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>26.7539638887914</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>26.7539638887914</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8073,10 +8073,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,16 +8216,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8301,19 +8301,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8456,19 +8456,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869682</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,13 +8614,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>263.3564402303034</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>257.6882366820029</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,13 +8851,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>247.6798763052967</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>263.3564402303034</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
-        <v>169.7240591823345</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,13 +9088,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4253159361996</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N18" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9328,10 +9328,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>164.3368825942667</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>319.9885156350499</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,16 +10905,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>309.6353666274674</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>333.309374525396</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3376824018375</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>360.3621492594679</v>
+        <v>168.3593638339673</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,16 +11300,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11458,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,10 +22607,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>345.4298064291826</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,19 +22635,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>402.9507326204611</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22872,19 +22872,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5145094703553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>394.5240408470375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2494512354109</v>
       </c>
       <c r="G9" t="n">
-        <v>113.788814240182</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
-        <v>84.64541897618032</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>132.254763809386</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4300443259292</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5058243038152</v>
+        <v>222.4694856490578</v>
       </c>
       <c r="U11" t="n">
-        <v>237.0350578730948</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5747034345055</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U12" t="n">
-        <v>201.6400878316884</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8117118238322</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I13" t="n">
-        <v>127.8604496669421</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J13" t="n">
-        <v>65.76915485635664</v>
+        <v>70.79282763244194</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>182.8858643100898</v>
+        <v>199.8588264407876</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S14" t="n">
-        <v>184.7187753369589</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>149.116818619607</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>63.59569076746356</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>196.4265727766561</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2182708028786</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>197.5503993115741</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2852409793091</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>169.4361926244048</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5119726022908</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>237.0350578730948</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23829,10 +23829,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.57395719080255</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>166.0458411930903</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23929,28 +23929,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>137.7095144153289</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>188.3617124664409</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U19" t="n">
-        <v>279.0629177303331</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>264.0742389760816</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>96.44679131877419</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24108,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5748021285713</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,19 +24294,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>79.3241055769173</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>105.3162266257576</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,16 +24342,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>14.84410631175118</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24570,25 +24570,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029174</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I29" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>143.2478283578181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.3140538843193</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>160.4037213163081</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>88.24012783885547</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.151119716000011</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>199.9087398321068</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>20.75685641119472</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25233,10 +25233,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>6.204336465378702</v>
+        <v>119.2136914343925</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,13 +25284,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25354,13 +25354,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,31 +25433,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>200.2037014803698</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25488,7 +25488,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>57.15682969231293</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>154.6657448885195</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>125.6626044445484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>152.9099328961272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>213.5815364503958</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>32.48249739079506</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>78.2834166775426</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>44.96860523886369</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>391.0014432658486</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>351685.0495668239</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351685.0495668239</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>351685.049566824</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351685.049566824</v>
+        <v>350049.7958156171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351685.049566824</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361211.7009109399</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506909.1411107078</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498243.5413336044</v>
+        <v>486975.2514232371</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351685.049566824</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63415.76181874353</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>63415.76181874354</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>63415.76181874354</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="E2" t="n">
+        <v>63121.07616893067</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63121.07616893068</v>
+      </c>
+      <c r="G2" t="n">
         <v>63415.76181874351</v>
       </c>
-      <c r="F2" t="n">
-        <v>63415.76181874349</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65132.53968261261</v>
-      </c>
       <c r="H2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="J2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="L2" t="n">
-        <v>91388.36989223285</v>
+        <v>88052.58645764728</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223279</v>
+        <v>88052.58645764728</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.3698922328</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
-        <v>89826.76032585889</v>
+        <v>87796.12542771843</v>
       </c>
       <c r="P2" t="n">
-        <v>63415.76181874351</v>
+        <v>59129.07304229552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>57583.78714233168</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9044.140630683767</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>9044.140630683767</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>9044.140630683765</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>9044.140630683765</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>9044.140630683767</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>9302.506853437249</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13253.87401588902</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>13253.87401588902</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>13253.87401588902</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>13018.8598223984</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>9044.140630683767</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
+        <v>1557.713704633554</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1557.713704633554</v>
+      </c>
+      <c r="G5" t="n">
         <v>1677.473535827221</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1677.473535827221</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2406.699719279908</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26497,19 +26497,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9820.495616919616</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>19066.54765223255</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>19066.54765223256</v>
+        <v>8463.818372101341</v>
       </c>
       <c r="E6" t="n">
-        <v>52694.14765223252</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>52694.1476522325</v>
+        <v>50049.84942588954</v>
       </c>
       <c r="G6" t="n">
-        <v>50135.99826628312</v>
+        <v>49628.59358656541</v>
       </c>
       <c r="H6" t="n">
-        <v>9133.089103987069</v>
+        <v>2236.224345158629</v>
       </c>
       <c r="I6" t="n">
-        <v>63480.82711258213</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="J6" t="n">
-        <v>56262.06254337198</v>
+        <v>59820.01148749029</v>
       </c>
       <c r="K6" t="n">
-        <v>63480.82711258213</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="L6" t="n">
-        <v>63480.82711258216</v>
+        <v>58679.32698494983</v>
       </c>
       <c r="M6" t="n">
-        <v>63480.8271125821</v>
+        <v>58679.32698494985</v>
       </c>
       <c r="N6" t="n">
-        <v>63480.8271125821</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="O6" t="n">
-        <v>62883.45792315151</v>
+        <v>58591.62910884903</v>
       </c>
       <c r="P6" t="n">
-        <v>52694.14765223252</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="G4" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M8" t="n">
-        <v>26.47527676494984</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>26.47527676494984</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>27.59002526031614</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N12" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>24.58512791403967</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M15" t="n">
-        <v>27.59002526031614</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,13 +35808,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>113.3808631277494</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>22.2028486722484</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37546,10 +37546,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>84.22210066506267</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>103.2111631037093</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2036484798192</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>229.0204371761346</v>
+        <v>37.01765175063403</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,16 +38020,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
